--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,55 +70,55 @@
     <t>low</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>better</t>
@@ -745,7 +745,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>40</v>
@@ -827,7 +827,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3">
         <v>0.896551724137931</v>
@@ -877,7 +877,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4">
         <v>0.8717948717948718</v>
@@ -927,7 +927,7 @@
         <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5">
         <v>0.8454545454545455</v>
@@ -977,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>0.84251968503937</v>
@@ -1027,7 +1027,7 @@
         <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>0.8125</v>
@@ -1077,7 +1077,7 @@
         <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8">
         <v>0.7721518987341772</v>
@@ -1127,7 +1127,7 @@
         <v>372</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.7227722772277227</v>
@@ -1177,28 +1177,28 @@
         <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.6926406926406926</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L10">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="M10">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1227,28 +1227,28 @@
         <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.6888888888888889</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L11">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="N11">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O11">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1277,28 +1277,28 @@
         <v>129</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.6808510638297872</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="M12">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>45</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1306,28 +1306,28 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.08843537414965986</v>
+        <v>0.01221640488656195</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>206</v>
+        <v>445</v>
       </c>
       <c r="E13">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>134</v>
+        <v>1698</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13">
         <v>0.6666666666666666</v>
@@ -1356,49 +1356,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01221640488656195</v>
+        <v>0.01175516822051074</v>
       </c>
       <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>669</v>
+      </c>
+      <c r="E14">
+        <v>0.96</v>
+      </c>
+      <c r="F14">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2438</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L14">
         <v>21</v>
       </c>
-      <c r="D14">
-        <v>445</v>
-      </c>
-      <c r="E14">
-        <v>0.95</v>
-      </c>
-      <c r="F14">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1698</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14">
-        <v>0.5902140672782875</v>
-      </c>
-      <c r="L14">
-        <v>193</v>
-      </c>
       <c r="M14">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1406,37 +1406,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01175516822051074</v>
+        <v>0.007142857142857143</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>669</v>
+        <v>421</v>
       </c>
       <c r="E15">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F15">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2438</v>
+        <v>2780</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.5676470588235294</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1448,34 +1448,10 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.007142857142857143</v>
-      </c>
-      <c r="C16">
-        <v>20</v>
-      </c>
-      <c r="D16">
-        <v>421</v>
-      </c>
-      <c r="E16">
-        <v>0.95</v>
-      </c>
-      <c r="F16">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2780</v>
-      </c>
       <c r="J16" s="1" t="s">
         <v>35</v>
       </c>
@@ -2647,7 +2623,7 @@
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K61">
         <v>0.2079272254710851</v>
@@ -2673,7 +2649,7 @@
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K62">
         <v>0.1998114985862394</v>
@@ -3375,7 +3351,7 @@
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K89">
         <v>0.1260609871109714</v>
